--- a/medicine/Psychotrope/Colline_Saluzzesi/Colline_Saluzzesi.xlsx
+++ b/medicine/Psychotrope/Colline_Saluzzesi/Colline_Saluzzesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Colline Saluzzesi est un vin italien de la région Piémont doté d'une appellation DOC depuis le 14 septembre 1996. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province de Coni, dans les communes de Pagno et Piasco ainsi qu'en partie dans les communes de  Costigliole Saluzzo, Manta, Verzuolo, Busca, Brondello, Castellar et Saluzzo.
@@ -513,7 +525,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les autres appellation de la zone de production sont:
 Colline Saluzzesi Pelaverga
@@ -546,7 +560,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>colore : rouge rubis.
 odore : vineux, fruité, intense, caractéristique.
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles 
